--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\app\api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\app\api\excelMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83B2610-6382-4ACA-98D1-AAF37F09EE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C2E255-DB04-468A-A77B-96CEB6E8A9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="3075" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t xml:space="preserve">O R D E N   D E   C O M P R A. </t>
   </si>
@@ -319,23 +319,47 @@
     <t>CON: CPU-005</t>
   </si>
   <si>
-    <t xml:space="preserve">TERRACERIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provedor1</t>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>PZA</t>
+  </si>
+  <si>
+    <t>provedor1</t>
+  </si>
+  <si>
+    <t>MAQUINARIA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>LLANTAS GOODYEAR</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTORES INDUSTRIALES DE 4 PINES </t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>ZAPATAS PARA EXCAVADORA 320</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts>
+  <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders>
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -1887,7 +1911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2198,9 +2222,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2262,345 +2283,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2609,15 +2303,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2677,6 +2362,345 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2983,15 +3007,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="B1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="123" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="122" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2999,10 +3024,10 @@
     <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="124" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="123" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="124" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -3016,7 +3041,7 @@
     </row>
     <row r="2" spans="2:16" ht="20.25" customHeight="1">
       <c r="B2" s="91"/>
-      <c r="F2" t="s" s="153">
+      <c r="F2" s="153" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="153"/>
@@ -3032,7 +3057,7 @@
     </row>
     <row r="3" spans="2:16" ht="35.25" customHeight="1">
       <c r="B3" s="91"/>
-      <c r="F3" t="s" s="155">
+      <c r="F3" s="155" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="155"/>
@@ -3062,7 +3087,7 @@
       <c r="I5" s="157"/>
       <c r="J5" s="157"/>
       <c r="K5" s="158"/>
-      <c r="L5" t="s" s="159">
+      <c r="L5" s="159" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="159"/>
@@ -3086,16 +3111,16 @@
       <c r="N6" s="93"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B7" t="s" s="99">
+      <c r="B7" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="150">
+      <c r="C7" s="161">
         <v>2103</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="H7" t="s" s="100">
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="H7" s="100" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="101"/>
@@ -3103,111 +3128,115 @@
       <c r="K7" s="102"/>
       <c r="L7" s="101"/>
       <c r="M7" s="101"/>
-      <c r="N7" t="s" s="151">
+      <c r="N7" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
     </row>
     <row r="8" spans="2:16" ht="12.75" customHeight="1">
       <c r="B8" s="99"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="H8" s="104"/>
-      <c r="I8" t="s" s="105">
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="H8" s="265" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="105"/>
+      <c r="J8" s="104"/>
       <c r="K8" s="92"/>
       <c r="N8" s="93"/>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B9" t="s" s="99">
+      <c r="B9" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="150">
-        <v>93</v>
-      </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="H9" s="104"/>
-      <c r="I9" t="s" s="105">
+      <c r="C9" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="105"/>
+      <c r="J9" s="104"/>
       <c r="K9" s="92"/>
-      <c r="N9" t="s" s="105">
+      <c r="N9" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="104"/>
+      <c r="P9" s="265" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1">
       <c r="B10" s="99"/>
-      <c r="C10" s="106"/>
-      <c r="H10" s="104"/>
-      <c r="I10" t="s" s="105">
+      <c r="C10" s="105"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="105"/>
+      <c r="J10" s="104"/>
       <c r="K10" s="92"/>
-      <c r="N10" t="s" s="105">
+      <c r="N10" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="104"/>
+      <c r="P10" s="265"/>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B11" t="s" s="99">
+      <c r="B11" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s" s="152">
-        <v>94</v>
-      </c>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" t="s" s="94">
+      <c r="C11" s="164" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" t="s" s="105">
+      <c r="H11" s="265"/>
+      <c r="I11" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="105"/>
+      <c r="J11" s="104"/>
       <c r="K11" s="92"/>
-      <c r="N11" t="s" s="105">
+      <c r="N11" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="104"/>
+      <c r="P11" s="265"/>
     </row>
     <row r="12" spans="2:16" ht="18.75" customHeight="1">
       <c r="B12" s="91"/>
-      <c r="H12" s="104"/>
-      <c r="I12" t="s" s="105">
+      <c r="H12" s="265"/>
+      <c r="I12" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="105"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="92"/>
       <c r="N12" s="93"/>
     </row>
     <row r="13" spans="2:16" ht="18.75" customHeight="1">
       <c r="B13" s="91"/>
-      <c r="H13" s="104"/>
-      <c r="I13" t="s" s="105">
+      <c r="H13" s="265"/>
+      <c r="I13" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="105"/>
+      <c r="J13" s="104"/>
       <c r="K13" s="92"/>
       <c r="N13" s="93"/>
     </row>
     <row r="14" spans="2:16" ht="18.75" customHeight="1">
       <c r="B14" s="91"/>
-      <c r="H14" s="104"/>
-      <c r="I14" t="s" s="105">
+      <c r="H14" s="265"/>
+      <c r="I14" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="105"/>
+      <c r="J14" s="104"/>
       <c r="K14" s="92"/>
       <c r="N14" s="93"/>
     </row>
@@ -3222,435 +3251,440 @@
       <c r="N16" s="93"/>
     </row>
     <row r="17" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B17" t="s" s="146">
+      <c r="B17" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s" s="107">
+      <c r="C17" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s" s="137">
+      <c r="D17" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="I17" t="s" s="137">
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="J17" t="s" s="135">
+      <c r="J17" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="K17" t="s" s="148">
+      <c r="K17" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="L17" t="s" s="135">
+      <c r="L17" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="M17" t="s" s="137">
+      <c r="M17" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="139"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="169"/>
     </row>
     <row r="18" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B18" s="147"/>
-      <c r="C18" t="s" s="108">
+      <c r="B18" s="166"/>
+      <c r="C18" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="249"/>
-      <c r="K19" s="259"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
     </row>
     <row r="20" spans="2:22" ht="30" customHeight="1">
-      <c r="B20" s="223">
+      <c r="B20" s="125">
         <v>1</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="260"/>
-      <c r="L20" t="s" s="255">
+      <c r="C20" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="137">
+        <v>4</v>
+      </c>
+      <c r="K20" s="147">
+        <v>18000</v>
+      </c>
+      <c r="L20" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="131"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="182"/>
     </row>
     <row r="21" spans="2:22" ht="30" customHeight="1">
-      <c r="B21" s="228">
+      <c r="B21" s="127">
         <v>2</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="232"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="261"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="145"/>
+      <c r="C21" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="183" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="138">
+        <v>3</v>
+      </c>
+      <c r="K21" s="148">
+        <v>360</v>
+      </c>
+      <c r="L21" s="143"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
     </row>
     <row r="22" spans="2:22" ht="30" customHeight="1">
-      <c r="B22" s="228">
+      <c r="B22" s="127">
         <v>3</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="246"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="261"/>
-      <c r="L22" s="256"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="134"/>
+      <c r="C22" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="189" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="138">
+        <v>5</v>
+      </c>
+      <c r="K22" s="148">
+        <v>12560</v>
+      </c>
+      <c r="L22" s="143"/>
+      <c r="M22" s="192"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="194"/>
     </row>
     <row r="23" spans="2:22" ht="30" customHeight="1">
-      <c r="B23" s="228">
+      <c r="B23" s="127">
         <f t="shared" ref="B23:B27" si="0">+B22+1</f>
-      </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="238"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="261"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="134"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="128"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="194"/>
     </row>
     <row r="24" spans="2:22" ht="30" customHeight="1">
-      <c r="B24" s="228">
+      <c r="B24" s="127">
         <f t="shared" si="0"/>
-      </c>
-      <c r="C24" s="229"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="238"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="262"/>
-      <c r="L24" s="257"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="134"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="128"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="192"/>
+      <c r="N24" s="193"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="194"/>
     </row>
     <row r="25" spans="2:22" ht="30" customHeight="1">
-      <c r="B25" s="228">
+      <c r="B25" s="127">
         <f t="shared" si="0"/>
-      </c>
-      <c r="C25" s="229"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="237"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="252"/>
-      <c r="K25" s="261"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="134"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="128"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="192"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="194"/>
     </row>
     <row r="26" spans="2:22" ht="30" customHeight="1">
-      <c r="B26" s="228">
+      <c r="B26" s="127">
         <f t="shared" si="0"/>
-      </c>
-      <c r="C26" s="229"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="237"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="237"/>
-      <c r="H26" s="238"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="264"/>
-      <c r="K26" s="265"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="134"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="128"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="193"/>
+      <c r="O26" s="193"/>
+      <c r="P26" s="194"/>
     </row>
     <row r="27" spans="2:22" ht="30" customHeight="1">
-      <c r="B27" s="228">
+      <c r="B27" s="127">
         <f t="shared" si="0"/>
-      </c>
-      <c r="C27" s="239"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="234"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="262"/>
-      <c r="L27" t="s" s="257">
+        <v>8</v>
+      </c>
+      <c r="C27" s="129"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="132"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="134"/>
+      <c r="M27" s="192"/>
+      <c r="N27" s="193"/>
+      <c r="O27" s="193"/>
+      <c r="P27" s="194"/>
     </row>
     <row r="28" spans="2:22" ht="30" customHeight="1">
-      <c r="B28" s="228"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="247"/>
-      <c r="J28" t="s" s="252">
+      <c r="B28" s="127"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="261">
-        <f>SUM(K20:K22)</f>
-      </c>
-      <c r="L28" s="257"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="134"/>
+      <c r="K28" s="148">
+        <f>SUM(K20:K27)</f>
+        <v>30920</v>
+      </c>
+      <c r="L28" s="144"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="193"/>
+      <c r="O28" s="193"/>
+      <c r="P28" s="194"/>
     </row>
     <row r="29" spans="2:22" ht="30" customHeight="1">
-      <c r="B29" s="228"/>
-      <c r="C29" s="239"/>
-      <c r="D29" t="s" s="233">
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="247"/>
-      <c r="J29" t="s" s="252">
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="261">
+      <c r="K29" s="148">
         <f>K28*0.16</f>
-      </c>
-      <c r="L29" s="257"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="113"/>
+        <v>4947.2</v>
+      </c>
+      <c r="L29" s="144"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="112"/>
     </row>
     <row r="30" spans="2:22" ht="30" customHeight="1">
-      <c r="B30" s="240"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="248"/>
-      <c r="J30" s="254"/>
-      <c r="K30" s="263"/>
-      <c r="L30" s="258"/>
-      <c r="M30" t="s" s="114">
+      <c r="B30" s="130"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="116"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="115"/>
     </row>
     <row r="31" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="119">
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="118">
         <f>K28+K29</f>
-      </c>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
+        <v>35867.199999999997</v>
+      </c>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
     </row>
     <row r="32" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B32" t="s" s="127">
+      <c r="B32" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="F32" t="s" s="94">
+      <c r="C32" s="163"/>
+      <c r="F32" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="K32" t="s" s="121">
+      <c r="K32" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="N32" t="s" s="103">
+      <c r="N32" s="103" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="18.75" customHeight="1">
       <c r="B33" s="91"/>
-      <c r="K33" s="121"/>
+      <c r="K33" s="120"/>
       <c r="N33" s="103"/>
     </row>
     <row r="34" spans="2:15" ht="18.75" customHeight="1">
       <c r="B34" s="91"/>
-      <c r="K34" s="121"/>
+      <c r="K34" s="120"/>
       <c r="N34" s="103"/>
     </row>
     <row r="35" spans="2:15" ht="18.75" customHeight="1">
       <c r="B35" s="91"/>
-      <c r="K35" s="121"/>
+      <c r="K35" s="120"/>
       <c r="N35" s="103"/>
     </row>
     <row r="36" spans="2:15" ht="18.75" customHeight="1">
       <c r="B36" s="91"/>
-      <c r="K36" s="121"/>
+      <c r="K36" s="120"/>
       <c r="N36" s="103"/>
     </row>
     <row r="37" spans="2:15" ht="17.25" customHeight="1">
       <c r="B37" s="91"/>
-      <c r="K37" s="121"/>
+      <c r="K37" s="120"/>
       <c r="N37" s="103"/>
     </row>
     <row r="38" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B38" t="s" s="122">
+      <c r="B38" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="E38" t="s" s="126">
+      <c r="E38" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="J38" t="s" s="94">
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="198"/>
+      <c r="J38" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="121"/>
-      <c r="N38" t="s" s="103">
+      <c r="K38" s="120"/>
+      <c r="N38" s="103" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B39" t="s" s="127">
+      <c r="B39" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="F39" t="s" s="103">
+      <c r="C39" s="163"/>
+      <c r="F39" s="103" t="s">
         <v>89</v>
       </c>
       <c r="G39" s="94"/>
-      <c r="J39" t="s" s="94">
+      <c r="J39" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="K39" s="121"/>
+      <c r="K39" s="120"/>
       <c r="M39" s="94"/>
-      <c r="N39" t="s" s="103">
+      <c r="N39" s="103" t="s">
         <v>91</v>
       </c>
       <c r="O39" s="94"/>
     </row>
     <row r="40" spans="2:15" ht="18.75" customHeight="1">
       <c r="B40" s="91"/>
-      <c r="K40" s="121"/>
+      <c r="K40" s="120"/>
       <c r="N40" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:P18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="M27:P27"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D28:H28"/>
@@ -3658,6 +3692,39 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:P18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="D6:K6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3669,8 +3736,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3694,24 +3764,24 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" t="s" s="216">
+      <c r="E1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
       <c r="L1" s="4"/>
-      <c r="M1" t="s" s="5">
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="B2" s="6"/>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="9"/>
@@ -3719,132 +3789,132 @@
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="B3" s="10"/>
       <c r="K3" s="11"/>
-      <c r="L3" t="s" s="12">
+      <c r="L3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B4" t="s" s="14">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="217">
+      <c r="C4" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="218"/>
-      <c r="G4" t="s" s="15">
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="220"/>
-      <c r="L4" t="s" s="16">
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B5" t="s" s="18">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="221">
+      <c r="C5" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
-      <c r="G5" t="s" s="19">
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="209"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="213"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B6" t="s" s="210">
+      <c r="B6" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="211"/>
-      <c r="G6" t="s" s="19">
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="213"/>
-      <c r="L6" t="s" s="23">
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B7" t="s" s="18">
+      <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="21">
+      <c r="C7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
-      <c r="G7" t="s" s="19">
+      <c r="G7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="218"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="B8" t="s" s="18">
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" t="s" s="197">
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" t="s" s="199">
+      <c r="H8" s="220"/>
+      <c r="I8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
-      <c r="L8" t="s" s="23">
+      <c r="J8" s="222"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="23" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="B9" s="202"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="204"/>
-      <c r="G9" t="s" s="205">
+      <c r="B9" s="224"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="206"/>
-      <c r="I9" t="s" s="206">
+      <c r="H9" s="228"/>
+      <c r="I9" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="206"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="187"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="231"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1">
       <c r="B10" s="32"/>
@@ -3852,13 +3922,13 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
-      <c r="G10" t="s" s="35">
+      <c r="G10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="189"/>
+      <c r="H10" s="232"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="233"/>
       <c r="L10" s="35"/>
       <c r="M10" s="36"/>
     </row>
@@ -3877,30 +3947,30 @@
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B12" t="s" s="39">
+      <c r="B12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s" s="40">
+      <c r="C12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s" s="40">
+      <c r="D12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="40">
+      <c r="E12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s" s="190">
+      <c r="F12" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="191"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="192"/>
-      <c r="L12" t="s" s="40">
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M12" t="s" s="41">
+      <c r="M12" s="41" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3908,16 +3978,16 @@
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
-      <c r="E13" t="s" s="44">
+      <c r="E13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="193"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="195"/>
-      <c r="L13" t="s" s="44">
+      <c r="F13" s="237"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="44" t="s">
         <v>32</v>
       </c>
       <c r="M13" s="46"/>
@@ -3927,15 +3997,16 @@
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="242"/>
       <c r="L14" s="50"/>
       <c r="M14" s="51">
         <f>+C14*L14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
@@ -3943,12 +4014,12 @@
       <c r="C15" s="45"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="242"/>
       <c r="L15" s="50"/>
       <c r="M15" s="51"/>
     </row>
@@ -3957,12 +4028,12 @@
       <c r="C16" s="53"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="245"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
     </row>
@@ -3971,12 +4042,12 @@
       <c r="C17" s="53"/>
       <c r="D17" s="44"/>
       <c r="E17" s="54"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="242"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
     </row>
@@ -3985,12 +4056,12 @@
       <c r="C18" s="53"/>
       <c r="D18" s="44"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="179"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="242"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
     </row>
@@ -3999,14 +4070,14 @@
       <c r="C19" s="53"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
-      <c r="F19" t="s" s="177">
+      <c r="F19" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="179"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="241"/>
+      <c r="K19" s="242"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
     </row>
@@ -4015,14 +4086,14 @@
       <c r="C20" s="53"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
-      <c r="F20" t="s" s="177">
+      <c r="F20" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="179"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="242"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
     </row>
@@ -4031,12 +4102,12 @@
       <c r="C21" s="53"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="179"/>
+      <c r="F21" s="240"/>
+      <c r="G21" s="241"/>
+      <c r="H21" s="241"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="241"/>
+      <c r="K21" s="242"/>
       <c r="L21" s="50"/>
       <c r="M21" s="51"/>
     </row>
@@ -4056,12 +4127,12 @@
       <c r="C23" s="53"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="182"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="244"/>
+      <c r="K23" s="245"/>
       <c r="L23" s="50"/>
       <c r="M23" s="51"/>
     </row>
@@ -4070,12 +4141,12 @@
       <c r="C24" s="53"/>
       <c r="D24" s="27"/>
       <c r="E24" s="44"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="179"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="242"/>
       <c r="L24" s="50"/>
       <c r="M24" s="51"/>
     </row>
@@ -4086,7 +4157,7 @@
       <c r="E25" s="57"/>
       <c r="F25" s="28"/>
       <c r="G25" s="30"/>
-      <c r="H25" t="s" s="30">
+      <c r="H25" s="30" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="30"/>
@@ -4102,7 +4173,7 @@
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
       <c r="G26" s="60"/>
-      <c r="H26" t="s" s="30">
+      <c r="H26" s="30" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="30"/>
@@ -4118,7 +4189,7 @@
       <c r="E27" s="43"/>
       <c r="F27" s="61"/>
       <c r="G27" s="30"/>
-      <c r="H27" t="s" s="30">
+      <c r="H27" s="30" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="62"/>
@@ -4129,14 +4200,14 @@
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1">
       <c r="B28" s="52"/>
-      <c r="C28" t="s" s="28">
+      <c r="C28" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="64"/>
       <c r="F28" s="28"/>
       <c r="G28" s="31"/>
-      <c r="H28" t="s" s="31">
+      <c r="H28" s="31" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="30"/>
@@ -4146,7 +4217,7 @@
       <c r="M28" s="59"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B29" t="s" s="52">
+      <c r="B29" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="25"/>
@@ -4154,69 +4225,69 @@
       <c r="E29" s="43"/>
       <c r="F29" s="25"/>
       <c r="G29" s="31"/>
-      <c r="H29" t="s" s="31">
+      <c r="H29" s="31" t="s">
         <v>39</v>
       </c>
       <c r="I29" s="66"/>
       <c r="J29" s="31"/>
       <c r="K29" s="63"/>
       <c r="L29" s="58"/>
-      <c r="M29" t="s" s="67">
+      <c r="M29" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1">
       <c r="B30" s="52"/>
       <c r="C30" s="27"/>
-      <c r="D30" t="s" s="68">
+      <c r="D30" s="68" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="64"/>
-      <c r="F30" t="s" s="28">
+      <c r="F30" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="30"/>
-      <c r="H30" t="s" s="30">
+      <c r="H30" s="30" t="s">
         <v>41</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="26"/>
       <c r="L30" s="58"/>
-      <c r="M30" t="s" s="67">
+      <c r="M30" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B31" t="s" s="183">
+      <c r="B31" s="246" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="185"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="247"/>
+      <c r="K31" s="248"/>
       <c r="L31" s="58"/>
-      <c r="M31" t="s" s="67">
+      <c r="M31" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B32" t="s" s="69">
+      <c r="B32" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s" s="48">
+      <c r="C32" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D32" t="s" s="48">
+      <c r="D32" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="48"/>
-      <c r="F32" t="s" s="48">
+      <c r="F32" s="48" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="48"/>
@@ -4224,54 +4295,55 @@
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
       <c r="K32" s="49"/>
-      <c r="L32" t="s" s="70">
+      <c r="L32" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="M32" t="s" s="67">
+      <c r="M32" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B33" s="174">
+      <c r="B33" s="249" t="str">
         <f>+C4</f>
-      </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
+        <v>TRITURADOS BASALTICOS TEPETLAOXTOC, S.A DE C.V</v>
+      </c>
+      <c r="C33" s="250"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="251"/>
       <c r="K33" s="30"/>
-      <c r="L33" t="s" s="70">
+      <c r="L33" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="M33" t="s" s="67">
+      <c r="M33" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B34" t="s" s="174">
+      <c r="B34" s="249" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" t="s" s="175">
+      <c r="C34" s="250"/>
+      <c r="D34" s="251"/>
+      <c r="E34" s="250" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="175"/>
-      <c r="G34" s="176"/>
-      <c r="H34" t="s" s="175">
+      <c r="F34" s="250"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="250" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
+      <c r="I34" s="250"/>
+      <c r="J34" s="251"/>
       <c r="K34" s="30"/>
-      <c r="L34" t="s" s="70">
+      <c r="L34" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="M34" t="s" s="67">
+      <c r="M34" s="67" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4332,45 +4404,47 @@
       <c r="M38" s="59"/>
     </row>
     <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="161"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="163"/>
-      <c r="E39" t="s" s="162">
+      <c r="B39" s="252"/>
+      <c r="C39" s="253"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="162"/>
-      <c r="G39" s="163"/>
-      <c r="H39" t="s" s="162">
+      <c r="F39" s="253"/>
+      <c r="G39" s="254"/>
+      <c r="H39" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="162"/>
-      <c r="J39" s="163"/>
+      <c r="I39" s="253"/>
+      <c r="J39" s="254"/>
       <c r="K39" s="81"/>
-      <c r="L39" t="s" s="27">
+      <c r="L39" s="27" t="s">
         <v>48</v>
       </c>
       <c r="M39" s="59">
         <f>SUM(M14:M38)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B40" t="s" s="161">
+      <c r="B40" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="163"/>
+      <c r="C40" s="253"/>
+      <c r="D40" s="253"/>
+      <c r="E40" s="253"/>
+      <c r="F40" s="253"/>
+      <c r="G40" s="253"/>
+      <c r="H40" s="253"/>
+      <c r="I40" s="253"/>
+      <c r="J40" s="254"/>
       <c r="K40" s="82"/>
-      <c r="L40" t="s" s="27">
+      <c r="L40" s="27" t="s">
         <v>50</v>
       </c>
       <c r="M40" s="59">
         <f>M39*0.16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="18.75" customHeight="1">
@@ -4384,7 +4458,7 @@
       <c r="I41" s="72"/>
       <c r="J41" s="84"/>
       <c r="K41" s="82"/>
-      <c r="L41" t="s" s="27">
+      <c r="L41" s="27" t="s">
         <v>51</v>
       </c>
       <c r="M41" s="59"/>
@@ -4393,44 +4467,45 @@
       <c r="B42" s="77"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
-      <c r="E42" t="s" s="164">
+      <c r="E42" s="255" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="165"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="168"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="257"/>
+      <c r="H42" s="258"/>
+      <c r="I42" s="258"/>
+      <c r="J42" s="259"/>
       <c r="K42" s="82"/>
-      <c r="L42" t="s" s="27">
+      <c r="L42" s="27" t="s">
         <v>53</v>
       </c>
       <c r="M42" s="59"/>
     </row>
     <row r="43" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B43" t="s" s="169">
+      <c r="B43" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" t="s" s="171">
+      <c r="C43" s="261"/>
+      <c r="D43" s="261"/>
+      <c r="E43" s="262" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="170"/>
-      <c r="G43" s="172"/>
-      <c r="H43" t="s" s="170">
+      <c r="F43" s="261"/>
+      <c r="G43" s="263"/>
+      <c r="H43" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="170"/>
-      <c r="J43" s="173"/>
-      <c r="K43" t="s" s="85">
+      <c r="I43" s="261"/>
+      <c r="J43" s="264"/>
+      <c r="K43" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="L43" t="s" s="86">
+      <c r="L43" s="86" t="s">
         <v>57</v>
       </c>
       <c r="M43" s="87">
         <f>+M39+M40-M41-M42</f>
+        <v>0</v>
       </c>
       <c r="N43" s="88"/>
     </row>
@@ -4450,49 +4525,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="F12:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="F12:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C2E255-DB04-468A-A77B-96CEB6E8A9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t xml:space="preserve">O R D E N   D E   C O M P R A. </t>
   </si>
@@ -350,16 +350,37 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRACERIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llantas de camión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llantas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="101">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -1911,7 +1932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3007,7 +3028,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
@@ -3041,7 +3061,7 @@
     </row>
     <row r="2" spans="2:16" ht="20.25" customHeight="1">
       <c r="B2" s="91"/>
-      <c r="F2" s="153" t="s">
+      <c r="F2" t="s" s="153">
         <v>58</v>
       </c>
       <c r="G2" s="153"/>
@@ -3057,7 +3077,7 @@
     </row>
     <row r="3" spans="2:16" ht="35.25" customHeight="1">
       <c r="B3" s="91"/>
-      <c r="F3" s="155" t="s">
+      <c r="F3" t="s" s="155">
         <v>59</v>
       </c>
       <c r="G3" s="155"/>
@@ -3087,14 +3107,14 @@
       <c r="I5" s="157"/>
       <c r="J5" s="157"/>
       <c r="K5" s="158"/>
-      <c r="L5" s="159" t="s">
+      <c r="L5" t="s" s="159">
         <v>60</v>
       </c>
       <c r="M5" s="159"/>
       <c r="N5" s="159"/>
       <c r="O5" s="160"/>
       <c r="P5" s="98">
-        <v>234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.75" customHeight="1">
@@ -3111,7 +3131,7 @@
       <c r="N6" s="93"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B7" s="99" t="s">
+      <c r="B7" t="s" s="99">
         <v>61</v>
       </c>
       <c r="C7" s="161">
@@ -3120,7 +3140,7 @@
       <c r="D7" s="161"/>
       <c r="E7" s="161"/>
       <c r="F7" s="161"/>
-      <c r="H7" s="100" t="s">
+      <c r="H7" t="s" s="100">
         <v>62</v>
       </c>
       <c r="I7" s="101"/>
@@ -3128,7 +3148,7 @@
       <c r="K7" s="102"/>
       <c r="L7" s="101"/>
       <c r="M7" s="101"/>
-      <c r="N7" s="162" t="s">
+      <c r="N7" t="s" s="162">
         <v>63</v>
       </c>
       <c r="O7" s="162"/>
@@ -3139,10 +3159,10 @@
       <c r="D8" s="163"/>
       <c r="E8" s="163"/>
       <c r="F8" s="163"/>
-      <c r="H8" s="265" t="s">
+      <c r="H8" t="s" s="265">
         <v>103</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" t="s" s="104">
         <v>64</v>
       </c>
       <c r="J8" s="104"/>
@@ -3150,25 +3170,25 @@
       <c r="N8" s="93"/>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B9" s="99" t="s">
+      <c r="B9" t="s" s="99">
         <v>65</v>
       </c>
-      <c r="C9" s="161" t="s">
-        <v>96</v>
+      <c r="C9" t="s" s="161">
+        <v>104</v>
       </c>
       <c r="D9" s="161"/>
       <c r="E9" s="161"/>
       <c r="F9" s="161"/>
       <c r="H9" s="265"/>
-      <c r="I9" s="104" t="s">
+      <c r="I9" t="s" s="104">
         <v>66</v>
       </c>
       <c r="J9" s="104"/>
       <c r="K9" s="92"/>
-      <c r="N9" s="104" t="s">
+      <c r="N9" t="s" s="104">
         <v>67</v>
       </c>
-      <c r="P9" s="265" t="s">
+      <c r="P9" t="s" s="265">
         <v>103</v>
       </c>
     </row>
@@ -3176,36 +3196,36 @@
       <c r="B10" s="99"/>
       <c r="C10" s="105"/>
       <c r="H10" s="265"/>
-      <c r="I10" s="104" t="s">
+      <c r="I10" t="s" s="104">
         <v>68</v>
       </c>
       <c r="J10" s="104"/>
       <c r="K10" s="92"/>
-      <c r="N10" s="104" t="s">
+      <c r="N10" t="s" s="104">
         <v>69</v>
       </c>
       <c r="P10" s="265"/>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1">
-      <c r="B11" s="99" t="s">
+      <c r="B11" t="s" s="99">
         <v>70</v>
       </c>
-      <c r="C11" s="164" t="s">
-        <v>93</v>
+      <c r="C11" t="s" s="164">
+        <v>105</v>
       </c>
       <c r="D11" s="164"/>
       <c r="E11" s="164"/>
       <c r="F11" s="164"/>
-      <c r="G11" s="94" t="s">
+      <c r="G11" t="s" s="94">
         <v>33</v>
       </c>
       <c r="H11" s="265"/>
-      <c r="I11" s="104" t="s">
+      <c r="I11" t="s" s="104">
         <v>71</v>
       </c>
       <c r="J11" s="104"/>
       <c r="K11" s="92"/>
-      <c r="N11" s="104" t="s">
+      <c r="N11" t="s" s="104">
         <v>72</v>
       </c>
       <c r="P11" s="265"/>
@@ -3213,7 +3233,7 @@
     <row r="12" spans="2:16" ht="18.75" customHeight="1">
       <c r="B12" s="91"/>
       <c r="H12" s="265"/>
-      <c r="I12" s="104" t="s">
+      <c r="I12" t="s" s="104">
         <v>73</v>
       </c>
       <c r="J12" s="104"/>
@@ -3223,7 +3243,7 @@
     <row r="13" spans="2:16" ht="18.75" customHeight="1">
       <c r="B13" s="91"/>
       <c r="H13" s="265"/>
-      <c r="I13" s="104" t="s">
+      <c r="I13" t="s" s="104">
         <v>74</v>
       </c>
       <c r="J13" s="104"/>
@@ -3233,7 +3253,7 @@
     <row r="14" spans="2:16" ht="18.75" customHeight="1">
       <c r="B14" s="91"/>
       <c r="H14" s="265"/>
-      <c r="I14" s="104" t="s">
+      <c r="I14" t="s" s="104">
         <v>75</v>
       </c>
       <c r="J14" s="104"/>
@@ -3251,32 +3271,32 @@
       <c r="N16" s="93"/>
     </row>
     <row r="17" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B17" s="165" t="s">
+      <c r="B17" t="s" s="165">
         <v>24</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" t="s" s="106">
         <v>76</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" t="s" s="167">
         <v>28</v>
       </c>
       <c r="E17" s="168"/>
       <c r="F17" s="168"/>
       <c r="G17" s="168"/>
       <c r="H17" s="169"/>
-      <c r="I17" s="167" t="s">
+      <c r="I17" t="s" s="167">
         <v>26</v>
       </c>
-      <c r="J17" s="173" t="s">
+      <c r="J17" t="s" s="173">
         <v>25</v>
       </c>
-      <c r="K17" s="175" t="s">
+      <c r="K17" t="s" s="175">
         <v>29</v>
       </c>
-      <c r="L17" s="173" t="s">
+      <c r="L17" t="s" s="173">
         <v>77</v>
       </c>
-      <c r="M17" s="167" t="s">
+      <c r="M17" t="s" s="167">
         <v>78</v>
       </c>
       <c r="N17" s="168"/>
@@ -3285,7 +3305,7 @@
     </row>
     <row r="18" spans="2:22" ht="18.75" customHeight="1">
       <c r="B18" s="166"/>
-      <c r="C18" s="107" t="s">
+      <c r="C18" t="s" s="107">
         <v>79</v>
       </c>
       <c r="D18" s="170"/>
@@ -3323,26 +3343,26 @@
       <c r="B20" s="125">
         <v>1</v>
       </c>
-      <c r="C20" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="177" t="s">
-        <v>98</v>
+      <c r="C20" t="s" s="126">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s" s="177">
+        <v>110</v>
       </c>
       <c r="E20" s="178"/>
       <c r="F20" s="178"/>
       <c r="G20" s="178"/>
       <c r="H20" s="179"/>
-      <c r="I20" s="132" t="s">
+      <c r="I20" t="s" s="132">
         <v>94</v>
       </c>
       <c r="J20" s="137">
         <v>4</v>
       </c>
       <c r="K20" s="147">
-        <v>18000</v>
-      </c>
-      <c r="L20" s="142" t="s">
+        <v>10400</v>
+      </c>
+      <c r="L20" t="s" s="142">
         <v>95</v>
       </c>
       <c r="M20" s="180"/>
@@ -3354,17 +3374,17 @@
       <c r="B21" s="127">
         <v>2</v>
       </c>
-      <c r="C21" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="183" t="s">
+      <c r="C21" s="128">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="183">
         <v>100</v>
       </c>
       <c r="E21" s="184"/>
       <c r="F21" s="184"/>
       <c r="G21" s="184"/>
       <c r="H21" s="185"/>
-      <c r="I21" s="133" t="s">
+      <c r="I21" t="s" s="133">
         <v>94</v>
       </c>
       <c r="J21" s="138">
@@ -3383,17 +3403,17 @@
       <c r="B22" s="127">
         <v>3</v>
       </c>
-      <c r="C22" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="189" t="s">
+      <c r="C22" s="128">
+        <v>605</v>
+      </c>
+      <c r="D22" t="s" s="189">
         <v>102</v>
       </c>
       <c r="E22" s="190"/>
       <c r="F22" s="190"/>
       <c r="G22" s="190"/>
       <c r="H22" s="191"/>
-      <c r="I22" s="133" t="s">
+      <c r="I22" t="s" s="133">
         <v>94</v>
       </c>
       <c r="J22" s="138">
@@ -3411,7 +3431,6 @@
     <row r="23" spans="2:22" ht="30" customHeight="1">
       <c r="B23" s="127">
         <f t="shared" ref="B23:B27" si="0">+B22+1</f>
-        <v>4</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="195"/>
@@ -3431,7 +3450,6 @@
     <row r="24" spans="2:22" ht="30" customHeight="1">
       <c r="B24" s="127">
         <f t="shared" si="0"/>
-        <v>5</v>
       </c>
       <c r="C24" s="128"/>
       <c r="D24" s="195"/>
@@ -3451,7 +3469,6 @@
     <row r="25" spans="2:22" ht="30" customHeight="1">
       <c r="B25" s="127">
         <f t="shared" si="0"/>
-        <v>6</v>
       </c>
       <c r="C25" s="128"/>
       <c r="D25" s="195"/>
@@ -3471,7 +3488,6 @@
     <row r="26" spans="2:22" ht="30" customHeight="1">
       <c r="B26" s="127">
         <f t="shared" si="0"/>
-        <v>7</v>
       </c>
       <c r="C26" s="128"/>
       <c r="D26" s="195"/>
@@ -3491,7 +3507,6 @@
     <row r="27" spans="2:22" ht="30" customHeight="1">
       <c r="B27" s="127">
         <f t="shared" si="0"/>
-        <v>8</v>
       </c>
       <c r="C27" s="129"/>
       <c r="D27" s="189"/>
@@ -3502,7 +3517,7 @@
       <c r="I27" s="134"/>
       <c r="J27" s="140"/>
       <c r="K27" s="149"/>
-      <c r="L27" s="144" t="s">
+      <c r="L27" t="s" s="144">
         <v>33</v>
       </c>
       <c r="M27" s="192"/>
@@ -3519,12 +3534,11 @@
       <c r="G28" s="190"/>
       <c r="H28" s="191"/>
       <c r="I28" s="134"/>
-      <c r="J28" s="139" t="s">
+      <c r="J28" t="s" s="139">
         <v>48</v>
       </c>
       <c r="K28" s="148">
         <f>SUM(K20:K27)</f>
-        <v>30920</v>
       </c>
       <c r="L28" s="144"/>
       <c r="M28" s="192"/>
@@ -3535,7 +3549,7 @@
     <row r="29" spans="2:22" ht="30" customHeight="1">
       <c r="B29" s="127"/>
       <c r="C29" s="129"/>
-      <c r="D29" s="189" t="s">
+      <c r="D29" t="s" s="189">
         <v>92</v>
       </c>
       <c r="E29" s="190"/>
@@ -3543,12 +3557,11 @@
       <c r="G29" s="190"/>
       <c r="H29" s="191"/>
       <c r="I29" s="134"/>
-      <c r="J29" s="139" t="s">
+      <c r="J29" t="s" s="139">
         <v>50</v>
       </c>
       <c r="K29" s="148">
         <f>K28*0.16</f>
-        <v>4947.2</v>
       </c>
       <c r="L29" s="144"/>
       <c r="M29" s="110"/>
@@ -3568,7 +3581,7 @@
       <c r="J30" s="141"/>
       <c r="K30" s="150"/>
       <c r="L30" s="145"/>
-      <c r="M30" s="113" t="s">
+      <c r="M30" t="s" s="113">
         <v>33</v>
       </c>
       <c r="N30" s="114"/>
@@ -3587,7 +3600,6 @@
       <c r="J31" s="117"/>
       <c r="K31" s="118">
         <f>K28+K29</f>
-        <v>35867.199999999997</v>
       </c>
       <c r="L31" s="117"/>
       <c r="M31" s="117"/>
@@ -3602,17 +3614,17 @@
       <c r="V31" s="117"/>
     </row>
     <row r="32" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B32" s="199" t="s">
+      <c r="B32" t="s" s="199">
         <v>80</v>
       </c>
       <c r="C32" s="163"/>
-      <c r="F32" s="94" t="s">
+      <c r="F32" t="s" s="94">
         <v>81</v>
       </c>
-      <c r="K32" s="120" t="s">
+      <c r="K32" t="s" s="120">
         <v>82</v>
       </c>
-      <c r="N32" s="103" t="s">
+      <c r="N32" t="s" s="103">
         <v>83</v>
       </c>
     </row>
@@ -3642,38 +3654,38 @@
       <c r="N37" s="103"/>
     </row>
     <row r="38" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B38" s="121" t="s">
+      <c r="B38" t="s" s="121">
         <v>84</v>
       </c>
-      <c r="E38" s="198" t="s">
+      <c r="E38" t="s" s="198">
         <v>85</v>
       </c>
       <c r="F38" s="198"/>
       <c r="G38" s="198"/>
       <c r="H38" s="198"/>
-      <c r="J38" s="94" t="s">
+      <c r="J38" t="s" s="94">
         <v>86</v>
       </c>
       <c r="K38" s="120"/>
-      <c r="N38" s="103" t="s">
+      <c r="N38" t="s" s="103">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B39" s="199" t="s">
+      <c r="B39" t="s" s="199">
         <v>88</v>
       </c>
       <c r="C39" s="163"/>
-      <c r="F39" s="103" t="s">
+      <c r="F39" t="s" s="103">
         <v>89</v>
       </c>
       <c r="G39" s="94"/>
-      <c r="J39" s="94" t="s">
+      <c r="J39" t="s" s="94">
         <v>90</v>
       </c>
       <c r="K39" s="120"/>
       <c r="M39" s="94"/>
-      <c r="N39" s="103" t="s">
+      <c r="N39" t="s" s="103">
         <v>91</v>
       </c>
       <c r="O39" s="94"/>
@@ -3736,7 +3748,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10:K10"/>
@@ -3764,7 +3775,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="203" t="s">
+      <c r="E1" t="s" s="203">
         <v>0</v>
       </c>
       <c r="F1" s="203"/>
@@ -3774,14 +3785,14 @@
       <c r="J1" s="203"/>
       <c r="K1" s="203"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s" s="5">
         <v>1</v>
       </c>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="B2" s="6"/>
-      <c r="L2" s="8" t="s">
+      <c r="L2" t="s" s="8">
         <v>2</v>
       </c>
       <c r="M2" s="9"/>
@@ -3789,44 +3800,44 @@
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="B3" s="10"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="12" t="s">
+      <c r="L3" t="s" s="12">
         <v>3</v>
       </c>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="204" t="s">
+      <c r="C4" t="s" s="204">
         <v>5</v>
       </c>
       <c r="D4" s="204"/>
       <c r="E4" s="204"/>
       <c r="F4" s="205"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" t="s" s="15">
         <v>6</v>
       </c>
       <c r="H4" s="206"/>
       <c r="I4" s="206"/>
       <c r="J4" s="206"/>
       <c r="K4" s="207"/>
-      <c r="L4" s="16" t="s">
+      <c r="L4" t="s" s="16">
         <v>7</v>
       </c>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B5" s="18" t="s">
+      <c r="B5" t="s" s="18">
         <v>8</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" t="s" s="208">
         <v>9</v>
       </c>
       <c r="D5" s="208"/>
       <c r="E5" s="208"/>
       <c r="F5" s="209"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" t="s" s="19">
         <v>10</v>
       </c>
       <c r="H5" s="210"/>
@@ -3837,36 +3848,36 @@
       <c r="M5" s="213"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B6" s="214" t="s">
+      <c r="B6" t="s" s="214">
         <v>11</v>
       </c>
       <c r="C6" s="215"/>
       <c r="D6" s="215"/>
       <c r="E6" s="215"/>
       <c r="F6" s="216"/>
-      <c r="G6" s="19" t="s">
+      <c r="G6" t="s" s="19">
         <v>12</v>
       </c>
       <c r="H6" s="210"/>
       <c r="I6" s="210"/>
       <c r="J6" s="210"/>
       <c r="K6" s="211"/>
-      <c r="L6" s="23" t="s">
+      <c r="L6" t="s" s="23">
         <v>13</v>
       </c>
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" t="s" s="21">
         <v>15</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="19" t="s">
+      <c r="G7" t="s" s="19">
         <v>16</v>
       </c>
       <c r="H7" s="210"/>
@@ -3877,23 +3888,23 @@
       <c r="M7" s="218"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="B8" t="s" s="18">
         <v>17</v>
       </c>
       <c r="C8" s="215"/>
       <c r="D8" s="215"/>
       <c r="E8" s="215"/>
       <c r="F8" s="215"/>
-      <c r="G8" s="219" t="s">
+      <c r="G8" t="s" s="219">
         <v>18</v>
       </c>
       <c r="H8" s="220"/>
-      <c r="I8" s="221" t="s">
+      <c r="I8" t="s" s="221">
         <v>19</v>
       </c>
       <c r="J8" s="222"/>
       <c r="K8" s="223"/>
-      <c r="L8" s="23" t="s">
+      <c r="L8" t="s" s="23">
         <v>20</v>
       </c>
       <c r="M8" s="29"/>
@@ -3904,11 +3915,11 @@
       <c r="D9" s="225"/>
       <c r="E9" s="225"/>
       <c r="F9" s="226"/>
-      <c r="G9" s="227" t="s">
+      <c r="G9" t="s" s="227">
         <v>21</v>
       </c>
       <c r="H9" s="228"/>
-      <c r="I9" s="228" t="s">
+      <c r="I9" t="s" s="228">
         <v>22</v>
       </c>
       <c r="J9" s="228"/>
@@ -3922,7 +3933,7 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="35" t="s">
+      <c r="G10" t="s" s="35">
         <v>23</v>
       </c>
       <c r="H10" s="232"/>
@@ -3947,19 +3958,19 @@
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B12" s="39" t="s">
+      <c r="B12" t="s" s="39">
         <v>24</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" t="s" s="40">
         <v>25</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" t="s" s="40">
         <v>26</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" t="s" s="40">
         <v>27</v>
       </c>
-      <c r="F12" s="234" t="s">
+      <c r="F12" t="s" s="234">
         <v>28</v>
       </c>
       <c r="G12" s="235"/>
@@ -3967,10 +3978,10 @@
       <c r="I12" s="235"/>
       <c r="J12" s="235"/>
       <c r="K12" s="236"/>
-      <c r="L12" s="40" t="s">
+      <c r="L12" t="s" s="40">
         <v>29</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" t="s" s="41">
         <v>30</v>
       </c>
     </row>
@@ -3978,7 +3989,7 @@
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="44" t="s">
+      <c r="E13" t="s" s="44">
         <v>31</v>
       </c>
       <c r="F13" s="237"/>
@@ -3987,7 +3998,7 @@
       <c r="I13" s="238"/>
       <c r="J13" s="238"/>
       <c r="K13" s="239"/>
-      <c r="L13" s="44" t="s">
+      <c r="L13" t="s" s="44">
         <v>32</v>
       </c>
       <c r="M13" s="46"/>
@@ -4006,7 +4017,6 @@
       <c r="L14" s="50"/>
       <c r="M14" s="51">
         <f>+C14*L14</f>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
@@ -4070,7 +4080,7 @@
       <c r="C19" s="53"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
-      <c r="F19" s="240" t="s">
+      <c r="F19" t="s" s="240">
         <v>33</v>
       </c>
       <c r="G19" s="241"/>
@@ -4086,7 +4096,7 @@
       <c r="C20" s="53"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
-      <c r="F20" s="240" t="s">
+      <c r="F20" t="s" s="240">
         <v>33</v>
       </c>
       <c r="G20" s="241"/>
@@ -4157,7 +4167,7 @@
       <c r="E25" s="57"/>
       <c r="F25" s="28"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="30" t="s">
+      <c r="H25" t="s" s="30">
         <v>34</v>
       </c>
       <c r="I25" s="30"/>
@@ -4173,7 +4183,7 @@
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
       <c r="G26" s="60"/>
-      <c r="H26" s="30" t="s">
+      <c r="H26" t="s" s="30">
         <v>35</v>
       </c>
       <c r="I26" s="30"/>
@@ -4189,7 +4199,7 @@
       <c r="E27" s="43"/>
       <c r="F27" s="61"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="30" t="s">
+      <c r="H27" t="s" s="30">
         <v>36</v>
       </c>
       <c r="I27" s="62"/>
@@ -4200,14 +4210,14 @@
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1">
       <c r="B28" s="52"/>
-      <c r="C28" s="28" t="s">
+      <c r="C28" t="s" s="28">
         <v>37</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="64"/>
       <c r="F28" s="28"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="31" t="s">
+      <c r="H28" t="s" s="31">
         <v>38</v>
       </c>
       <c r="I28" s="30"/>
@@ -4217,7 +4227,7 @@
       <c r="M28" s="59"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B29" s="52" t="s">
+      <c r="B29" t="s" s="52">
         <v>33</v>
       </c>
       <c r="C29" s="25"/>
@@ -4225,41 +4235,41 @@
       <c r="E29" s="43"/>
       <c r="F29" s="25"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="31" t="s">
+      <c r="H29" t="s" s="31">
         <v>39</v>
       </c>
       <c r="I29" s="66"/>
       <c r="J29" s="31"/>
       <c r="K29" s="63"/>
       <c r="L29" s="58"/>
-      <c r="M29" s="67" t="s">
+      <c r="M29" t="s" s="67">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1">
       <c r="B30" s="52"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="68" t="s">
+      <c r="D30" t="s" s="68">
         <v>33</v>
       </c>
       <c r="E30" s="64"/>
-      <c r="F30" s="28" t="s">
+      <c r="F30" t="s" s="28">
         <v>40</v>
       </c>
       <c r="G30" s="30"/>
-      <c r="H30" s="30" t="s">
+      <c r="H30" t="s" s="30">
         <v>41</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="26"/>
       <c r="L30" s="58"/>
-      <c r="M30" s="67" t="s">
+      <c r="M30" t="s" s="67">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B31" s="246" t="s">
+      <c r="B31" t="s" s="246">
         <v>42</v>
       </c>
       <c r="C31" s="247"/>
@@ -4272,22 +4282,22 @@
       <c r="J31" s="247"/>
       <c r="K31" s="248"/>
       <c r="L31" s="58"/>
-      <c r="M31" s="67" t="s">
+      <c r="M31" t="s" s="67">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B32" s="69" t="s">
+      <c r="B32" t="s" s="69">
         <v>33</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" t="s" s="48">
         <v>33</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" t="s" s="48">
         <v>33</v>
       </c>
       <c r="E32" s="48"/>
-      <c r="F32" s="48" t="s">
+      <c r="F32" t="s" s="48">
         <v>33</v>
       </c>
       <c r="G32" s="48"/>
@@ -4295,17 +4305,16 @@
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
       <c r="K32" s="49"/>
-      <c r="L32" s="70" t="s">
+      <c r="L32" t="s" s="70">
         <v>33</v>
       </c>
-      <c r="M32" s="67" t="s">
+      <c r="M32" t="s" s="67">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B33" s="249" t="str">
+      <c r="B33" s="249">
         <f>+C4</f>
-        <v>TRITURADOS BASALTICOS TEPETLAOXTOC, S.A DE C.V</v>
       </c>
       <c r="C33" s="250"/>
       <c r="D33" s="250"/>
@@ -4316,34 +4325,34 @@
       <c r="I33" s="250"/>
       <c r="J33" s="251"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="70" t="s">
+      <c r="L33" t="s" s="70">
         <v>33</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" t="s" s="67">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B34" s="249" t="s">
+      <c r="B34" t="s" s="249">
         <v>43</v>
       </c>
       <c r="C34" s="250"/>
       <c r="D34" s="251"/>
-      <c r="E34" s="250" t="s">
+      <c r="E34" t="s" s="250">
         <v>44</v>
       </c>
       <c r="F34" s="250"/>
       <c r="G34" s="251"/>
-      <c r="H34" s="250" t="s">
+      <c r="H34" t="s" s="250">
         <v>45</v>
       </c>
       <c r="I34" s="250"/>
       <c r="J34" s="251"/>
       <c r="K34" s="30"/>
-      <c r="L34" s="70" t="s">
+      <c r="L34" t="s" s="70">
         <v>33</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="M34" t="s" s="67">
         <v>33</v>
       </c>
     </row>
@@ -4407,27 +4416,26 @@
       <c r="B39" s="252"/>
       <c r="C39" s="253"/>
       <c r="D39" s="254"/>
-      <c r="E39" s="253" t="s">
+      <c r="E39" t="s" s="253">
         <v>46</v>
       </c>
       <c r="F39" s="253"/>
       <c r="G39" s="254"/>
-      <c r="H39" s="253" t="s">
+      <c r="H39" t="s" s="253">
         <v>47</v>
       </c>
       <c r="I39" s="253"/>
       <c r="J39" s="254"/>
       <c r="K39" s="81"/>
-      <c r="L39" s="27" t="s">
+      <c r="L39" t="s" s="27">
         <v>48</v>
       </c>
       <c r="M39" s="59">
         <f>SUM(M14:M38)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B40" s="252" t="s">
+      <c r="B40" t="s" s="252">
         <v>49</v>
       </c>
       <c r="C40" s="253"/>
@@ -4439,12 +4447,11 @@
       <c r="I40" s="253"/>
       <c r="J40" s="254"/>
       <c r="K40" s="82"/>
-      <c r="L40" s="27" t="s">
+      <c r="L40" t="s" s="27">
         <v>50</v>
       </c>
       <c r="M40" s="59">
         <f>M39*0.16</f>
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="18.75" customHeight="1">
@@ -4458,7 +4465,7 @@
       <c r="I41" s="72"/>
       <c r="J41" s="84"/>
       <c r="K41" s="82"/>
-      <c r="L41" s="27" t="s">
+      <c r="L41" t="s" s="27">
         <v>51</v>
       </c>
       <c r="M41" s="59"/>
@@ -4467,7 +4474,7 @@
       <c r="B42" s="77"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
-      <c r="E42" s="255" t="s">
+      <c r="E42" t="s" s="255">
         <v>52</v>
       </c>
       <c r="F42" s="256"/>
@@ -4476,36 +4483,35 @@
       <c r="I42" s="258"/>
       <c r="J42" s="259"/>
       <c r="K42" s="82"/>
-      <c r="L42" s="27" t="s">
+      <c r="L42" t="s" s="27">
         <v>53</v>
       </c>
       <c r="M42" s="59"/>
     </row>
     <row r="43" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B43" s="260" t="s">
+      <c r="B43" t="s" s="260">
         <v>54</v>
       </c>
       <c r="C43" s="261"/>
       <c r="D43" s="261"/>
-      <c r="E43" s="262" t="s">
+      <c r="E43" t="s" s="262">
         <v>55</v>
       </c>
       <c r="F43" s="261"/>
       <c r="G43" s="263"/>
-      <c r="H43" s="261" t="s">
+      <c r="H43" t="s" s="261">
         <v>56</v>
       </c>
       <c r="I43" s="261"/>
       <c r="J43" s="264"/>
-      <c r="K43" s="85" t="s">
+      <c r="K43" t="s" s="85">
         <v>33</v>
       </c>
-      <c r="L43" s="86" t="s">
+      <c r="L43" t="s" s="86">
         <v>57</v>
       </c>
       <c r="M43" s="87">
         <f>+M39+M40-M41-M42</f>
-        <v>0</v>
       </c>
       <c r="N43" s="88"/>
     </row>

--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provedor2</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3123,7 @@
       <c r="N5" s="159"/>
       <c r="O5" s="160"/>
       <c r="P5" s="98">
-        <v>4</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.75" customHeight="1">
@@ -3344,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s" s="126">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s" s="177">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20" s="178"/>
       <c r="F20" s="178"/>
@@ -3357,13 +3366,13 @@
         <v>94</v>
       </c>
       <c r="J20" s="137">
-        <v>4</v>
+        <v>1223</v>
       </c>
       <c r="K20" s="147">
-        <v>10400</v>
+        <v>1223</v>
       </c>
       <c r="L20" t="s" s="142">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="M20" s="180"/>
       <c r="N20" s="181"/>

--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -380,6 +380,57 @@
   </si>
   <si>
     <t xml:space="preserve">provedor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgafdas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12341234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfsdgr</t>
   </si>
 </sst>
 </file>
@@ -3123,7 +3174,7 @@
       <c r="N5" s="159"/>
       <c r="O5" s="160"/>
       <c r="P5" s="98">
-        <v>234</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.75" customHeight="1">
@@ -3183,12 +3234,14 @@
         <v>65</v>
       </c>
       <c r="C9" t="s" s="161">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D9" s="161"/>
       <c r="E9" s="161"/>
       <c r="F9" s="161"/>
-      <c r="H9" s="265"/>
+      <c r="H9" t="s" s="265">
+        <v>103</v>
+      </c>
       <c r="I9" t="s" s="104">
         <v>66</v>
       </c>
@@ -3213,14 +3266,16 @@
       <c r="N10" t="s" s="104">
         <v>69</v>
       </c>
-      <c r="P10" s="265"/>
+      <c r="P10" t="s" s="265">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1">
       <c r="B11" t="s" s="99">
         <v>70</v>
       </c>
       <c r="C11" t="s" s="164">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D11" s="164"/>
       <c r="E11" s="164"/>
@@ -3237,11 +3292,15 @@
       <c r="N11" t="s" s="104">
         <v>72</v>
       </c>
-      <c r="P11" s="265"/>
+      <c r="P11" t="s" s="265">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="2:16" ht="18.75" customHeight="1">
       <c r="B12" s="91"/>
-      <c r="H12" s="265"/>
+      <c r="H12" t="s" s="265">
+        <v>103</v>
+      </c>
       <c r="I12" t="s" s="104">
         <v>73</v>
       </c>
@@ -3251,7 +3310,9 @@
     </row>
     <row r="13" spans="2:16" ht="18.75" customHeight="1">
       <c r="B13" s="91"/>
-      <c r="H13" s="265"/>
+      <c r="H13" t="s" s="265">
+        <v>103</v>
+      </c>
       <c r="I13" t="s" s="104">
         <v>74</v>
       </c>
@@ -3353,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s" s="126">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s" s="177">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E20" s="178"/>
       <c r="F20" s="178"/>
@@ -3366,13 +3427,13 @@
         <v>94</v>
       </c>
       <c r="J20" s="137">
-        <v>1223</v>
+        <v>54</v>
       </c>
       <c r="K20" s="147">
-        <v>1223</v>
+        <v>1242</v>
       </c>
       <c r="L20" t="s" s="142">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M20" s="180"/>
       <c r="N20" s="181"/>

--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t xml:space="preserve">gfsdgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llantas</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3183,7 @@
       <c r="N5" s="159"/>
       <c r="O5" s="160"/>
       <c r="P5" s="98">
-        <v>678</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.75" customHeight="1">
@@ -3414,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s" s="126">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s" s="177">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E20" s="178"/>
       <c r="F20" s="178"/>
@@ -3427,10 +3436,10 @@
         <v>94</v>
       </c>
       <c r="J20" s="137">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="K20" s="147">
-        <v>1242</v>
+        <v>49376</v>
       </c>
       <c r="L20" t="s" s="142">
         <v>95</v>

--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -440,6 +440,24 @@
   </si>
   <si>
     <t xml:space="preserve">Llantas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bujes para Cargador Frontal ACN-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tijeras</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3201,7 @@
       <c r="N5" s="159"/>
       <c r="O5" s="160"/>
       <c r="P5" s="98">
-        <v>234</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.75" customHeight="1">
@@ -3243,7 +3261,7 @@
         <v>65</v>
       </c>
       <c r="C9" t="s" s="161">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D9" s="161"/>
       <c r="E9" s="161"/>
@@ -3284,7 +3302,7 @@
         <v>70</v>
       </c>
       <c r="C11" t="s" s="164">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D11" s="164"/>
       <c r="E11" s="164"/>
@@ -3426,7 +3444,7 @@
         <v>111</v>
       </c>
       <c r="D20" t="s" s="177">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E20" s="178"/>
       <c r="F20" s="178"/>
@@ -3436,10 +3454,10 @@
         <v>94</v>
       </c>
       <c r="J20" s="137">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K20" s="147">
-        <v>49376</v>
+        <v>720</v>
       </c>
       <c r="L20" t="s" s="142">
         <v>95</v>

--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -195,6 +195,33 @@
   </si>
   <si>
     <t xml:space="preserve">PZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRACERIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bultos de cemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtros donaldson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijeras punta roma</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1293,7 @@
       <c r="M5" s="68"/>
       <c r="N5" s="69"/>
       <c r="O5" s="30">
-        <v>555</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75">
@@ -1307,7 +1334,9 @@
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="23"/>
+      <c r="H8" t="s" s="23">
+        <v>46</v>
+      </c>
       <c r="I8" t="s" s="22">
         <v>38</v>
       </c>
@@ -1317,19 +1346,23 @@
         <v>37</v>
       </c>
       <c r="C9" t="s" s="61">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
       <c r="F9" s="61"/>
-      <c r="H9" s="23"/>
+      <c r="H9" t="s" s="23">
+        <v>46</v>
+      </c>
       <c r="I9" t="s" s="22">
         <v>36</v>
       </c>
       <c r="M9" t="s" s="25">
         <v>35</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" t="s" s="23">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="26"/>
@@ -1351,7 +1384,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s" s="64">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -1375,7 +1408,9 @@
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="H13" s="23"/>
+      <c r="H13" t="s" s="23">
+        <v>46</v>
+      </c>
       <c r="I13" t="s" s="22">
         <v>27</v>
       </c>
@@ -1463,7 +1498,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="17"/>
       <c r="K20" t="s" s="16">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s" s="32">
         <v>17</v>
@@ -1479,14 +1514,22 @@
       <c r="B21" s="12">
         <f t="shared" ref="B21:B31" si="0">+B20+1</f>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="37"/>
+      <c r="C21" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s" s="37">
+        <v>60</v>
+      </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="I21" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="J21" s="12">
+        <v>20</v>
+      </c>
       <c r="K21" s="12"/>
       <c r="L21" t="s" s="33">
         <v>16</v>
@@ -1667,8 +1710,8 @@
       <c r="B30" s="12">
         <f t="shared" si="0"/>
       </c>
-      <c r="C30" t="s" s="12">
-        <v>49</v>
+      <c r="C30" s="12">
+        <v>1256</v>
       </c>
       <c r="D30" t="s" s="37">
         <v>50</v>

--- a/app/api/excelMod/plantilla.xlsx
+++ b/app/api/excelMod/plantilla.xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\app\api\excelMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF74DEF-FC5C-4320-903A-2F34A09B73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3963977E-ABCB-4F73-962E-48D5E8389F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15285" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}" activeTab="0"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
+    <sheet name="compra" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">compra!$B$2:$M$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">requi!$A$1:$P$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Gerente General</t>
   </si>
@@ -176,66 +178,153 @@
     <t>TRITURADOS BASÁLTICOS TEPETLAOXTOC</t>
   </si>
   <si>
-    <t xml:space="preserve">MAQUINARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provedor1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placa de asero reforzado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERRACERIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bultos de cemento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtros donaldson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijeras punta roma</t>
+    <t xml:space="preserve">O R D E N   D E   C O M P R A. </t>
+  </si>
+  <si>
+    <t>ANVERSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOJA No.   1        DE: 2   </t>
+  </si>
+  <si>
+    <t>PEDIDO NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPRESA : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIENTE O PROVEEDOR:                                                                                           </t>
+  </si>
+  <si>
+    <t>FECHA DE PEDIDO :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCION : </t>
+  </si>
+  <si>
+    <t>AVENIDA HOMERO NO. 530, INT. PISO 9 COL. POLANCO V SECCION, LOC. MIGUEL HIDALGO, CDMX.</t>
+  </si>
+  <si>
+    <t>DIRECCION :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO. REQUISICION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.F.C. :        </t>
+  </si>
+  <si>
+    <t>TBT170816U42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.F.C. : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTREGAR EN : </t>
+  </si>
+  <si>
+    <t>CONDICIONES DE PAGO :</t>
+  </si>
+  <si>
+    <t>FACTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLETE : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. ENTREGA : </t>
+  </si>
+  <si>
+    <t>REPRESENTANTE :</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>CONTACTO</t>
+  </si>
+  <si>
+    <t>TELÉFONO</t>
+  </si>
+  <si>
+    <t>1.- ELABORO</t>
+  </si>
+  <si>
+    <t>2.-REVISO</t>
+  </si>
+  <si>
+    <t>3.-AUTORIZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.C. MARY CARMEN BAUTISTA </t>
+  </si>
+  <si>
+    <t>C.P. KARINA HERNANDEZ C.</t>
+  </si>
+  <si>
+    <t>ING. GERMAN SAMPERIO MENDOZA</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>CLIENTE O PROVEEDOR</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>IVA RET</t>
+  </si>
+  <si>
+    <t>ING. SALVADOR RAMOS LARA</t>
+  </si>
+  <si>
+    <t>ISR RET</t>
+  </si>
+  <si>
+    <t>SOLICITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   REVISO</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>IMENDIATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° PARTE </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts>
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
   </numFmts>
-  <fonts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,8 +396,68 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Helv"/>
+    </font>
   </fonts>
-  <fills>
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,8 +476,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders>
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -644,217 +811,1309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="56"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="56"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="56"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="56"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="56"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="56"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="56"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="56"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="56"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="56"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="56"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="56"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="56"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="56"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="56"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="22" fillId="6" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="6" borderId="81" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{1C7E4F14-B0D5-453C-8F35-F4CB45053FA9}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{53679008-3008-4286-8449-55D0EE5764F5}"/>
     <cellStyle name="Normal_CIMA - 02-01 Compras Locales a Proveedores - Anexos" xfId="3" xr:uid="{989F33FF-3C49-415D-A0FC-80370EA42CB1}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -913,6 +2172,156 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736603</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D9ACCE-64D7-492A-8740-178CE64E747E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2861945" y="701041"/>
+          <a:ext cx="5852798" cy="186689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000" b="1" i="1" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helv"/>
+            </a:rPr>
+            <a:t>VER CONDICIONES DE COMPRA  O SERVICIO PRESENTADAS AL REVERSO </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1000" b="1" i="1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Helv"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>770890</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="783590" cy="706120"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CA28EC-5647-4C71-BCC6-DFBFF07F32DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1121410" y="223520"/>
+          <a:ext cx="783590" cy="706120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1217,431 +2626,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D726E0-84C6-462A-B6E0-B82A81C65E42}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="20" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" t="s" s="65">
+      <c r="F2" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="31"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" t="s" s="66">
+      <c r="F3" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="31"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:15" ht="15.75">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" t="s" s="68">
+    <row r="5" spans="2:15" ht="15.6">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="29"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.6">
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" t="s" s="26">
+      <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="61">
-        <v>2103</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="H7" t="s" s="28">
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="H7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" t="s" s="63">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="H8" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s" s="22">
+      <c r="B8" s="25"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" t="s" s="26">
+      <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s" s="61">
-        <v>59</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="H9" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s" s="22">
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M9" t="s" s="25">
+      <c r="M9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="26"/>
-      <c r="H10" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s" s="22">
+      <c r="B10" s="25"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="M10" t="s" s="25">
+      <c r="M10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O10" t="s" s="24">
-        <v>46</v>
-      </c>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" t="s" s="26">
+      <c r="B11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="64">
-        <v>53</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" t="s" s="1">
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" t="s" s="22">
+      <c r="H11" s="22"/>
+      <c r="I11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s" s="25">
+      <c r="M11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="24"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="H12" s="23"/>
-      <c r="I12" t="s" s="22">
+      <c r="H12" s="22"/>
+      <c r="I12" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="H13" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s" s="22">
+      <c r="H13" s="22"/>
+      <c r="I13" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="H14" s="23"/>
-      <c r="I14" t="s" s="22">
+      <c r="H14" s="22"/>
+      <c r="I14" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" t="s" s="59">
+      <c r="B17" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s" s="21">
+      <c r="C17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s" s="43">
+      <c r="D17" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" t="s" s="43">
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="J17" t="s" s="59">
+      <c r="J17" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="K17" t="s" s="59">
+      <c r="K17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L17" t="s" s="43">
+      <c r="L17" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="145"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="60"/>
-      <c r="C18" t="s" s="20">
+      <c r="B18" s="142"/>
+      <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="148"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="2:21" ht="27" customHeight="1">
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>1</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17"/>
-      <c r="K20" t="s" s="16">
-        <v>54</v>
-      </c>
-      <c r="L20" t="s" s="32">
+      <c r="C20" s="17"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="157"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
         <f t="shared" ref="B21:B31" si="0">+B20+1</f>
-      </c>
-      <c r="C21" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s" s="37">
-        <v>60</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="J21" s="12">
-        <v>20</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" t="s" s="33">
+      <c r="L21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="159"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="152"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="155"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" t="s" s="33">
+      <c r="L22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="34"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="155"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" t="s" s="33">
+      <c r="L23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="159"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="155"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" t="s" s="33">
+      <c r="L24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="159"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" t="s" s="33">
+      <c r="L25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="161"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C26" s="12"/>
       <c r="I26" s="12"/>
@@ -1655,13 +3041,14 @@
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="155"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -1673,13 +3060,14 @@
     <row r="28" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="155"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -1691,13 +3079,14 @@
     <row r="29" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="155"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -1709,23 +3098,16 @@
     <row r="30" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
-      </c>
-      <c r="C30" s="12">
-        <v>1256</v>
-      </c>
-      <c r="D30" t="s" s="37">
-        <v>50</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="J30" s="12">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
       <c r="M30" s="10"/>
@@ -1735,13 +3117,14 @@
     <row r="31" spans="2:21" ht="19.5" customHeight="1">
       <c r="B31" s="8">
         <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="165"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1772,74 +3155,68 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1">
-      <c r="B33" t="s" s="35">
+      <c r="B33" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="162"/>
       <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
+      <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" t="s" s="2">
+      <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" t="s" s="2">
+      <c r="M33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1">
-      <c r="B36" t="s" s="36">
+      <c r="B36" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="F36" t="s" s="1">
+      <c r="C36" s="162"/>
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" t="s" s="1">
+      <c r="J36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L36" s="2"/>
-      <c r="M36" t="s" s="1">
+      <c r="M36" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1">
-      <c r="B37" t="s" s="36">
+      <c r="B37" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="F37" t="s" s="1">
+      <c r="C37" s="139"/>
+      <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J37" t="s" s="1">
+      <c r="J37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M37" t="s" s="1">
+      <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
     <mergeCell ref="L17:O18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="T20:U25"/>
@@ -1853,20 +3230,1259 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC632B1E-9A63-463F-AD19-4D6F88E4DF95}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:N97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L33:L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="15"/>
+    <col min="4" max="4" width="10.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19" style="15" customWidth="1"/>
+    <col min="8" max="9" width="11.44140625" style="15"/>
+    <col min="10" max="10" width="12.88671875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="36" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:14" ht="16.5" customHeight="1" thickTop="1">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="166" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="168"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="L4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="49"/>
+      <c r="N4" s="46"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="169" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="170"/>
+      <c r="N5" s="54"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1">
+      <c r="B6" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="173" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="180">
+        <f>L10</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="181"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="172"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="182">
+        <f>requi!K20</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="185" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="186"/>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="2:14" ht="12.9" customHeight="1">
+      <c r="B8" s="187" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="188" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="192" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="194">
+        <f>requi!C11</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="195"/>
+      <c r="N8" s="55"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="172"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="196" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="197"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="198">
+        <f>requi!M20</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="200">
+        <f>requi!O5</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="201"/>
+      <c r="N10" s="61"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="202">
+        <f>requi!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="196" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="197"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="198" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="205"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.8" customHeight="1" thickBot="1">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="209">
+        <f>H29</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" ht="14.4" thickTop="1" thickBot="1">
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="2:14" ht="13.8" thickBot="1">
+      <c r="B15" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="211" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="72"/>
+    </row>
+    <row r="16" spans="2:14" s="73" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B16" s="74">
+        <v>1</v>
+      </c>
+      <c r="C16" s="130">
+        <f>requi!J20</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="130">
+        <f>requi!I20</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="130">
+        <f>requi!C20</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="208">
+        <f>requi!D20</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76">
+        <f t="shared" ref="M16:M27" si="0">L16*C16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="77"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="74">
+        <v>2</v>
+      </c>
+      <c r="C17" s="130">
+        <f>requi!J21</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="130">
+        <f>requi!I21</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="130">
+        <f>requi!C21</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="208">
+        <f>requi!D21</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="81"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="74">
+        <v>3</v>
+      </c>
+      <c r="C18" s="130">
+        <f>requi!J22</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="130">
+        <f>requi!I22</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="130">
+        <f>requi!C22</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="208">
+        <f>requi!D22</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="81"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="74">
+        <v>4</v>
+      </c>
+      <c r="C19" s="130">
+        <f>requi!J23</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="130">
+        <f>requi!I23</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="130">
+        <f>requi!C23</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="208">
+        <f>requi!D23</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="81"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="74">
+        <v>5</v>
+      </c>
+      <c r="C20" s="130">
+        <f>requi!J24</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="130">
+        <f>requi!I24</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="130">
+        <f>requi!C24</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="208">
+        <f>requi!D24</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="81"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="74">
+        <v>6</v>
+      </c>
+      <c r="C21" s="130">
+        <f>requi!J25</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="130">
+        <f>requi!I25</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="130">
+        <f>requi!C25</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="208">
+        <f>requi!D25</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="81"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="74">
+        <v>7</v>
+      </c>
+      <c r="C22" s="130">
+        <f>requi!J26</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="130">
+        <f>requi!I26</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="130">
+        <f>requi!C26</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="208">
+        <f>requi!D26</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="81"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="74">
+        <v>8</v>
+      </c>
+      <c r="C23" s="130">
+        <f>requi!J27</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="130">
+        <f>requi!I27</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="130">
+        <f>requi!C27</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="208">
+        <f>requi!D27</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="74">
+        <v>9</v>
+      </c>
+      <c r="C24" s="130">
+        <f>requi!J28</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="130">
+        <f>requi!I28</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="130">
+        <f>requi!C28</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="208">
+        <f>requi!D28</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="81"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="74">
+        <v>10</v>
+      </c>
+      <c r="C25" s="130">
+        <f>requi!J29</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="130">
+        <f>requi!I29</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="130">
+        <f>requi!C29</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="208">
+        <f>requi!D29</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="208"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="81"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="74">
+        <v>11</v>
+      </c>
+      <c r="C26" s="78"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="216"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="81"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="74">
+        <v>12</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="81"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="74">
+        <v>13</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="81"/>
+    </row>
+    <row r="29" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B29" s="74">
+        <v>14</v>
+      </c>
+      <c r="C29" s="78"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="81"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="74">
+        <v>15</v>
+      </c>
+      <c r="C30" s="78"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="229">
+        <f>requi!M23</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="229"/>
+      <c r="J30" s="229"/>
+      <c r="K30" s="230"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="81"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="74">
+        <v>16</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="229">
+        <f>requi!M24</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="229"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="230"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="81"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="74">
+        <v>17</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="229">
+        <f>requi!M25</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="229"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="81"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="74">
+        <v>18</v>
+      </c>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="229">
+        <f>requi!M22</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="229"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="230"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="81"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="74">
+        <v>19</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="229">
+        <f>requi!M21</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="229"/>
+      <c r="J34" s="229"/>
+      <c r="K34" s="230"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="81"/>
+    </row>
+    <row r="35" spans="2:14" ht="10.8" customHeight="1">
+      <c r="B35" s="217" t="str">
+        <f>PesosMN(M43)</f>
+        <v>SON: ( PESO 00/100 M.N.)</v>
+      </c>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="100"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="220" t="str">
+        <f>C6</f>
+        <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
+      </c>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="221"/>
+      <c r="I36" s="221"/>
+      <c r="J36" s="222"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="100"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="223" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="225" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="226"/>
+      <c r="G37" s="227"/>
+      <c r="H37" s="224" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="224"/>
+      <c r="J37" s="228"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="100"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="109"/>
+    </row>
+    <row r="39" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B39" s="240" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="241"/>
+      <c r="D39" s="241"/>
+      <c r="E39" s="242" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="241"/>
+      <c r="G39" s="243"/>
+      <c r="H39" s="241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="241"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="112">
+        <f>SUM(M16:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="113"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.4" customHeight="1">
+      <c r="B40" s="231" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40" s="112">
+        <f>+M39*0.16</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="113"/>
+    </row>
+    <row r="41" spans="2:14" ht="13.2" customHeight="1">
+      <c r="B41" s="116"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="112"/>
+      <c r="N41" s="113"/>
+    </row>
+    <row r="42" spans="2:14" ht="11.4" customHeight="1">
+      <c r="B42" s="121"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="124"/>
+      <c r="H42" s="232">
+        <f>+G7</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="232"/>
+      <c r="J42" s="233"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" s="112"/>
+      <c r="N42" s="113"/>
+    </row>
+    <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
+      <c r="B43" s="234" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="236" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="237"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="235" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="235"/>
+      <c r="J43" s="239"/>
+      <c r="K43" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="127">
+        <f>+M39+M40-M41-M42</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="113"/>
+    </row>
+    <row r="44" spans="2:14" ht="13.8" thickTop="1">
+      <c r="M44" s="128"/>
+      <c r="N44" s="129"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="M47" s="15"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="13:13">
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="13:13">
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="13:13">
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="13:13">
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="13:13">
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="13:13">
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="13:13">
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="13:13">
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="13:13">
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="13:13">
+      <c r="M62" s="15"/>
+    </row>
+    <row r="63" spans="13:13">
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="13:13">
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="13:13">
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="13:13">
+      <c r="M66" s="15"/>
+    </row>
+    <row r="67" spans="13:13">
+      <c r="M67" s="15"/>
+    </row>
+    <row r="68" spans="13:13">
+      <c r="M68" s="15"/>
+    </row>
+    <row r="69" spans="13:13">
+      <c r="M69" s="15"/>
+    </row>
+    <row r="70" spans="13:13">
+      <c r="M70" s="15"/>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" s="15"/>
+    </row>
+    <row r="72" spans="13:13">
+      <c r="M72" s="15"/>
+    </row>
+    <row r="73" spans="13:13">
+      <c r="M73" s="15"/>
+    </row>
+    <row r="74" spans="13:13">
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" spans="13:13">
+      <c r="M75" s="15"/>
+    </row>
+    <row r="76" spans="13:13">
+      <c r="M76" s="15"/>
+    </row>
+    <row r="77" spans="13:13">
+      <c r="M77" s="15"/>
+    </row>
+    <row r="78" spans="13:13">
+      <c r="M78" s="15"/>
+    </row>
+    <row r="79" spans="13:13">
+      <c r="M79" s="15"/>
+    </row>
+    <row r="80" spans="13:13">
+      <c r="M80" s="15"/>
+    </row>
+    <row r="81" spans="13:13">
+      <c r="M81" s="15"/>
+    </row>
+    <row r="82" spans="13:13">
+      <c r="M82" s="15"/>
+    </row>
+    <row r="83" spans="13:13">
+      <c r="M83" s="15"/>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" s="15"/>
+    </row>
+    <row r="85" spans="13:13">
+      <c r="M85" s="15"/>
+    </row>
+    <row r="86" spans="13:13">
+      <c r="M86" s="15"/>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" s="15"/>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" s="15"/>
+    </row>
+    <row r="89" spans="13:13">
+      <c r="M89" s="15"/>
+    </row>
+    <row r="90" spans="13:13">
+      <c r="M90" s="15"/>
+    </row>
+    <row r="91" spans="13:13">
+      <c r="M91" s="15"/>
+    </row>
+    <row r="92" spans="13:13">
+      <c r="M92" s="15"/>
+    </row>
+    <row r="93" spans="13:13">
+      <c r="M93" s="15"/>
+    </row>
+    <row r="94" spans="13:13">
+      <c r="M94" s="15"/>
+    </row>
+    <row r="95" spans="13:13">
+      <c r="M95" s="15"/>
+    </row>
+    <row r="96" spans="13:13">
+      <c r="M96" s="15"/>
+    </row>
+    <row r="97" spans="13:13">
+      <c r="M97" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R&amp;"Arial,Negrita"(ANVERSO)</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>